--- a/biology/Médecine/Paul_Héger/Paul_Héger.xlsx
+++ b/biology/Médecine/Paul_Héger/Paul_Héger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul_H%C3%A9ger</t>
+          <t>Paul_Héger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Marie François Xavier Héger est un biologiste belge, né le 13 décembre 1846 à Bruxelles, où il est mort le 8 novembre 1925[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Marie François Xavier Héger est un biologiste belge, né le 13 décembre 1846 à Bruxelles, où il est mort le 8 novembre 1925.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul_H%C3%A9ger</t>
+          <t>Paul_Héger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Formation et carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Héger s'inscrit à la Faculté des Sciences de l'Université libre de Bruxelles en 1864. Il est reçu Docteur en Médecine en 1871 et part prolonger sa formation à Vienne, puis à Leipzig où il travaille en laboratoire. De retour à Bruxelles, il donne des cours de physiologie et monte son premier laboratoire. En 1889, il devient directeur de l'Institut de recherches Solvay. Il est vice-président de l'ULB pendant la première guerre et Président jusqu'en 1924. Membre de l'Académie Royale de Médecine, il tente de modifier en profondeur l'enseignement de la médecine — jusque-là essentiellement dogmatique — pour le substituer par un enseignement plus expérimental : il remplace l'explication par l'expérimentation. Cette méthode remporte un grand succès auprès de ses étudiants, mais pas seulement puisque d'autres personnes comme Hector Denis, Eugène Goblet d'Alviella ou Paul Janson, se déplacent pour assister à ses cours.
 Il dirige l’institut de physiologie Solvay au Parc Léopold à partir de 1895 et fonde la publication des Archives internationales de physiologie en 1904.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paul_H%C3%A9ger</t>
+          <t>Paul_Héger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Héger est le fils de Constantin Héger et l'oncle de Marie Picard, la femme d'Antoine Depage.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Paul_H%C3%A9ger</t>
+          <t>Paul_Héger</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'avenue principale du campus du Solbosch de l'Université libre de Bruxelles et située sur les territoires de Bruxelles-ville et d'Ixelles porte son nom ;
 la rue Héger-Bordet le long de l'institut Jules Bordet à Bruxelles associe le maître (Paul Héger) à son élève (Jules Bordet)</t>
